--- a/bika/lims/setupdata/_testing.xlsx
+++ b/bika/lims/setupdata/_testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="16" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="946" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="17" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="940" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="648">
   <si>
     <t>Password lifetime</t>
   </si>
@@ -96,6 +96,9 @@
     <t>Permitted</t>
   </si>
   <si>
+    <t>{'days':30, 'hours':0, 'minutes':0}</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -786,6 +789,9 @@
     <t>AP</t>
   </si>
   <si>
+    <t>{'days':10, 'hours':0, 'minutes':0}</t>
+  </si>
+  <si>
     <t>Potato</t>
   </si>
   <si>
@@ -1521,6 +1527,9 @@
     <t>ContainerType</t>
   </si>
   <si>
+    <t>Retention Period</t>
+  </si>
+  <si>
     <t>HNO3 - pH below 2</t>
   </si>
   <si>
@@ -1530,18 +1539,27 @@
     <t>Cool, 4 deg. C</t>
   </si>
   <si>
+    <t>{'days':2, 'hours':0, 'minutes':0}</t>
+  </si>
+  <si>
     <t>Cool, 4 deg. C, H2SO4 - pH below 2</t>
   </si>
   <si>
     <t>Filter on site, Cool, 4 deg. C</t>
   </si>
   <si>
+    <t>{'days':4, 'hours':0, 'minutes':0}</t>
+  </si>
+  <si>
     <t>NaOH - pH over 12</t>
   </si>
   <si>
     <t>ascorbic acid</t>
   </si>
   <si>
+    <t>{'days':180, 'hours':0, 'minutes':0}</t>
+  </si>
+  <si>
     <t>Containers</t>
   </si>
   <si>
@@ -1569,319 +1587,340 @@
     <t>Consol Jar</t>
   </si>
   <si>
+    <t>1 l</t>
+  </si>
+  <si>
     <t>Glass Jar 5L</t>
   </si>
   <si>
+    <t>5 l</t>
+  </si>
+  <si>
     <t>Plastic bag 2L</t>
   </si>
   <si>
     <t>Ziplock bag</t>
   </si>
   <si>
+    <t>2 l</t>
+  </si>
+  <si>
     <t>Plastic bag 500ml</t>
   </si>
   <si>
+    <t>500 ml</t>
+  </si>
+  <si>
     <t>20 ml vial</t>
   </si>
   <si>
+    <t>20 ml</t>
+  </si>
+  <si>
     <t>20 ml plastic vial</t>
   </si>
   <si>
     <t>Canvas bag</t>
   </si>
   <si>
+    <t>10 kg</t>
+  </si>
+  <si>
+    <t>Canvas bag 20kg</t>
+  </si>
+  <si>
+    <t>20 kg</t>
+  </si>
+  <si>
+    <t>Analysis Profiles</t>
+  </si>
+  <si>
+    <t>ProfileKey</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Analyses</t>
+  </si>
+  <si>
+    <t>Feedstuffs energy</t>
+  </si>
+  <si>
+    <t>PDE</t>
+  </si>
+  <si>
+    <t>DE,CP,EE,CF,Ash</t>
+  </si>
+  <si>
+    <t>Micro-Bio check</t>
+  </si>
+  <si>
+    <t>Tests presence of organisms only</t>
+  </si>
+  <si>
+    <t>Mbcheck</t>
+  </si>
+  <si>
+    <t>Clos,Ecoli,Salmon,Entero</t>
+  </si>
+  <si>
+    <t>Micro-Bio counts</t>
+  </si>
+  <si>
+    <t>Size of infestation</t>
+  </si>
+  <si>
+    <t>Mbcount</t>
+  </si>
+  <si>
+    <t>Ecolicnt,Enterocnt,TVBcnt</t>
+  </si>
+  <si>
+    <t>Manufacturers</t>
+  </si>
+  <si>
+    <t>Bloggs &amp; co</t>
+  </si>
+  <si>
+    <t>Manufacturers of fine products since 2008</t>
+  </si>
+  <si>
+    <t>Freds Factory</t>
+  </si>
+  <si>
+    <t>Not just a promise!</t>
+  </si>
+  <si>
+    <t>Reference Definitions</t>
+  </si>
+  <si>
+    <t>Reference Results</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Blank Reference</t>
+  </si>
+  <si>
+    <t>All values zero</t>
+  </si>
+  <si>
+    <t>Not Blank</t>
+  </si>
+  <si>
+    <t>All values</t>
+  </si>
+  <si>
+    <t>Reference Suppliers</t>
+  </si>
+  <si>
+    <t>Account nr</t>
+  </si>
+  <si>
+    <t>Acme Standards</t>
+  </si>
+  <si>
+    <t>acme@example.com</t>
+  </si>
+  <si>
+    <t>021 616 2050</t>
+  </si>
+  <si>
+    <t>021 616 2192</t>
+  </si>
+  <si>
+    <t>Samples for Africa</t>
+  </si>
+  <si>
+    <t>sfa@example.com</t>
+  </si>
+  <si>
+    <t>021 349 1150</t>
+  </si>
+  <si>
+    <t>021 349 1504</t>
+  </si>
+  <si>
+    <t>Everything Normal</t>
+  </si>
+  <si>
+    <t>en@example.com</t>
+  </si>
+  <si>
+    <t>021 344 3026</t>
+  </si>
+  <si>
+    <t>021 344 3157</t>
+  </si>
+  <si>
+    <t>Reference Supplier Contacts</t>
+  </si>
+  <si>
+    <t>_ReferenceSupplier_Name</t>
+  </si>
+  <si>
+    <t>Reference Supplier</t>
+  </si>
+  <si>
+    <t>Bobby</t>
+  </si>
+  <si>
+    <t>bobby</t>
+  </si>
+  <si>
+    <t>bobbyS</t>
+  </si>
+  <si>
+    <t>bobby@example.com</t>
+  </si>
+  <si>
+    <t>Bulelani</t>
+  </si>
+  <si>
+    <t>Miyama</t>
+  </si>
+  <si>
+    <t>bulelani</t>
+  </si>
+  <si>
+    <t>bulelaniM</t>
+  </si>
+  <si>
+    <t>bulelani@example.com</t>
+  </si>
+  <si>
+    <t>Meredith</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>meredith</t>
+  </si>
+  <si>
+    <t>MeredithM</t>
+  </si>
+  <si>
+    <t>meredith@example.com</t>
+  </si>
+  <si>
+    <t>File Attachment Types</t>
+  </si>
+  <si>
+    <t>Spectrograph</t>
+  </si>
+  <si>
+    <t>Spectrograph image</t>
+  </si>
+  <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>Photographic image</t>
+  </si>
+  <si>
+    <t>Microscope</t>
+  </si>
+  <si>
+    <t>Microscope photo</t>
+  </si>
+  <si>
+    <t>Data blob</t>
+  </si>
+  <si>
+    <t>Rawdata in binary format</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Price (excl VAT)</t>
+  </si>
+  <si>
+    <t>NaOH</t>
+  </si>
+  <si>
+    <t>N/100</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Distilled water</t>
+  </si>
+  <si>
+    <t>Own container</t>
+  </si>
+  <si>
+    <t>Ethanol (Acidified)</t>
+  </si>
+  <si>
+    <t>pH Buffer</t>
+  </si>
+  <si>
+    <t>pH 7</t>
+  </si>
+  <si>
+    <t>Iodine Indicator</t>
+  </si>
+  <si>
+    <t>Iotect</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Mono Propylene Glycol</t>
+  </si>
+  <si>
+    <t>Acetaldehyde</t>
+  </si>
+  <si>
+    <t>TS standaard</t>
+  </si>
+  <si>
+    <t>Balling standard</t>
+  </si>
+  <si>
+    <t>18deg</t>
+  </si>
+  <si>
+    <t>N Butanol</t>
+  </si>
+  <si>
+    <t>Bromo Cresol Green</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Potassium Sodium Tartrate  (Roselt Salt)</t>
+  </si>
+  <si>
+    <t>WL Nutrient Agar</t>
+  </si>
+  <si>
+    <t>Tartartic L (+) Acid</t>
+  </si>
+  <si>
+    <t>Appelsuur</t>
+  </si>
+  <si>
+    <t>Wine Additive</t>
+  </si>
+  <si>
     <t>kg</t>
-  </si>
-  <si>
-    <t>Canvas bag 20kg</t>
-  </si>
-  <si>
-    <t>Analysis Profiles</t>
-  </si>
-  <si>
-    <t>ProfileKey</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Analyses</t>
-  </si>
-  <si>
-    <t>Feedstuffs energy</t>
-  </si>
-  <si>
-    <t>PDE</t>
-  </si>
-  <si>
-    <t>DE,CP,EE,CF,Ash</t>
-  </si>
-  <si>
-    <t>Micro-Bio check</t>
-  </si>
-  <si>
-    <t>Tests presence of organisms only</t>
-  </si>
-  <si>
-    <t>Mbcheck</t>
-  </si>
-  <si>
-    <t>Clos,Ecoli,Salmon,Entero</t>
-  </si>
-  <si>
-    <t>Micro-Bio counts</t>
-  </si>
-  <si>
-    <t>Size of infestation</t>
-  </si>
-  <si>
-    <t>Mbcount</t>
-  </si>
-  <si>
-    <t>Ecolicnt,Enterocnt,TVBcnt</t>
-  </si>
-  <si>
-    <t>Manufacturers</t>
-  </si>
-  <si>
-    <t>Bloggs &amp; co</t>
-  </si>
-  <si>
-    <t>Manufacturers of fine products since 2008</t>
-  </si>
-  <si>
-    <t>Freds Factory</t>
-  </si>
-  <si>
-    <t>Not just a promise!</t>
-  </si>
-  <si>
-    <t>Reference Definitions</t>
-  </si>
-  <si>
-    <t>Reference Results</t>
-  </si>
-  <si>
-    <t>Blank</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Blank Reference</t>
-  </si>
-  <si>
-    <t>All values zero</t>
-  </si>
-  <si>
-    <t>Not Blank</t>
-  </si>
-  <si>
-    <t>All values</t>
-  </si>
-  <si>
-    <t>Reference Suppliers</t>
-  </si>
-  <si>
-    <t>Account nr</t>
-  </si>
-  <si>
-    <t>Acme Standards</t>
-  </si>
-  <si>
-    <t>acme@example.com</t>
-  </si>
-  <si>
-    <t>021 616 2050</t>
-  </si>
-  <si>
-    <t>021 616 2192</t>
-  </si>
-  <si>
-    <t>Samples for Africa</t>
-  </si>
-  <si>
-    <t>sfa@example.com</t>
-  </si>
-  <si>
-    <t>021 349 1150</t>
-  </si>
-  <si>
-    <t>021 349 1504</t>
-  </si>
-  <si>
-    <t>Everything Normal</t>
-  </si>
-  <si>
-    <t>en@example.com</t>
-  </si>
-  <si>
-    <t>021 344 3026</t>
-  </si>
-  <si>
-    <t>021 344 3157</t>
-  </si>
-  <si>
-    <t>Reference Supplier Contacts</t>
-  </si>
-  <si>
-    <t>_ReferenceSupplier_Name</t>
-  </si>
-  <si>
-    <t>Reference Supplier</t>
-  </si>
-  <si>
-    <t>Bobby</t>
-  </si>
-  <si>
-    <t>bobby</t>
-  </si>
-  <si>
-    <t>bobbyS</t>
-  </si>
-  <si>
-    <t>bobby@example.com</t>
-  </si>
-  <si>
-    <t>Bulelani</t>
-  </si>
-  <si>
-    <t>Miyama</t>
-  </si>
-  <si>
-    <t>bulelani</t>
-  </si>
-  <si>
-    <t>bulelaniM</t>
-  </si>
-  <si>
-    <t>bulelani@example.com</t>
-  </si>
-  <si>
-    <t>Meredith</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>meredith</t>
-  </si>
-  <si>
-    <t>MeredithM</t>
-  </si>
-  <si>
-    <t>meredith@example.com</t>
-  </si>
-  <si>
-    <t>File Attachment Types</t>
-  </si>
-  <si>
-    <t>Spectrograph</t>
-  </si>
-  <si>
-    <t>Spectrograph image</t>
-  </si>
-  <si>
-    <t>Photograph</t>
-  </si>
-  <si>
-    <t>Photographic image</t>
-  </si>
-  <si>
-    <t>Microscope</t>
-  </si>
-  <si>
-    <t>Microscope photo</t>
-  </si>
-  <si>
-    <t>Data blob</t>
-  </si>
-  <si>
-    <t>Rawdata in binary format</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Price (excl VAT)</t>
-  </si>
-  <si>
-    <t>NaOH</t>
-  </si>
-  <si>
-    <t>N/100</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>Distilled water</t>
-  </si>
-  <si>
-    <t>Own container</t>
-  </si>
-  <si>
-    <t>Ethanol (Acidified)</t>
-  </si>
-  <si>
-    <t>pH Buffer</t>
-  </si>
-  <si>
-    <t>pH 7</t>
-  </si>
-  <si>
-    <t>Iodine Indicator</t>
-  </si>
-  <si>
-    <t>Iotect</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>Mono Propylene Glycol</t>
-  </si>
-  <si>
-    <t>Acetaldehyde</t>
-  </si>
-  <si>
-    <t>TS standaard</t>
-  </si>
-  <si>
-    <t>Balling standard</t>
-  </si>
-  <si>
-    <t>18deg</t>
-  </si>
-  <si>
-    <t>N Butanol</t>
-  </si>
-  <si>
-    <t>Bromo Cresol Green</t>
-  </si>
-  <si>
-    <t>KI</t>
-  </si>
-  <si>
-    <t>Potassium Sodium Tartrate  (Roselt Salt)</t>
-  </si>
-  <si>
-    <t>WL Nutrient Agar</t>
-  </si>
-  <si>
-    <t>Tartartic L (+) Acid</t>
-  </si>
-  <si>
-    <t>Appelsuur</t>
-  </si>
-  <si>
-    <t>Wine Additive</t>
   </si>
   <si>
     <t>Citric acid</t>
@@ -2075,7 +2114,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFCC99"/>
-        <bgColor rgb="00E6E6E6"/>
+        <bgColor rgb="00C0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -2260,7 +2299,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00E6E6E6"/>
+      <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00FF0000"/>
       <rgbColor rgb="0000FF00"/>
       <rgbColor rgb="000000FF"/>
@@ -2327,12 +2366,12 @@
   </sheetPr>
   <dimension ref="A2:N4"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="G5" activeCellId="0" pane="topLeft" sqref="G5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="E1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="M10" activeCellId="0" pane="topLeft" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
@@ -2380,7 +2419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="4">
       <c r="A4" s="1" t="n">
         <v>10</v>
       </c>
@@ -2418,8 +2457,8 @@
       <c r="M4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <v>30</v>
+      <c r="N4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2440,21 +2479,21 @@
   </sheetPr>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="E5" activeCellId="0" pane="topLeft" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="21.2352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="41.5764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="8" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="19.8"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="8" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="21.7803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="42.6156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="30.3176470588235"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="8" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
       <c r="A1" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -2472,59 +2511,59 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
+      <c r="A3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3" s="3">
-      <c r="A3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>10</v>
+        <v>248</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="F4" s="8" t="b">
         <f aca="false">FALSE()</f>
@@ -2533,19 +2572,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>10</v>
       </c>
       <c r="F5" s="8" t="b">
         <f aca="false">FALSE()</f>
@@ -2554,19 +2593,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v>30</v>
+        <v>255</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="8" t="b">
         <f aca="false">TRUE()</f>
@@ -2575,19 +2614,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>30</v>
+        <v>258</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="8" t="b">
         <f aca="false">FALSE()</f>
@@ -2612,19 +2651,19 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="H57" activeCellId="0" pane="topLeft" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="35.0392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="54.3098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="31" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="35.9333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="55.678431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="31" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
       <c r="A1" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -2639,68 +2678,68 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
       <c r="A5" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="A6" s="31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
       <c r="A7" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2721,20 +2760,20 @@
   </sheetPr>
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="86.3450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="24.9254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="88.5176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="25.5411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
       <c r="A1" s="33" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -2760,41 +2799,41 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="80" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2815,29 +2854,29 @@
   </sheetPr>
   <dimension ref="A1:AB117"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="21" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="20" min="8" style="21" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="34" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="21" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="18" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="21" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="25" style="8" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="29" style="28" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="21" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="20" min="8" style="21" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="34" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="21" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="18" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="21" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="28" min="25" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="29" style="28" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="23">
       <c r="A1" s="19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -2847,7 +2886,7 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="36" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -2860,7 +2899,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="35"/>
       <c r="V1" s="19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="W1" s="37"/>
       <c r="X1" s="19"/>
@@ -2871,182 +2910,182 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="41.75" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="4">
       <c r="A4" s="21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G4" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -3056,19 +3095,19 @@
         <v>17</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J4" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L4" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N4" s="21" t="n">
         <v>10</v>
@@ -3139,33 +3178,33 @@
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="V8" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W8" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="9">
       <c r="A9" s="21" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G9" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -3178,13 +3217,13 @@
         <v>2</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L9" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N9" s="21" t="n">
         <v>10</v>
@@ -3196,7 +3235,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="T9" s="21" t="n">
         <v>10</v>
@@ -3261,33 +3300,33 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="V13" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W13" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X13" s="21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="191.75" outlineLevel="0" r="14">
+        <v>311</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="169.4" outlineLevel="0" r="14">
       <c r="A14" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G14" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -3297,19 +3336,19 @@
         <v>17</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J14" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L14" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N14" s="21" t="n">
         <v>10</v>
@@ -3321,7 +3360,7 @@
         <v>14</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="T14" s="21" t="n">
         <v>10</v>
@@ -3342,19 +3381,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="A15" s="21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G15" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -3364,19 +3403,19 @@
         <v>17</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J15" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L15" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N15" s="21" t="n">
         <v>10</v>
@@ -3388,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="T15" s="21" t="n">
         <v>10</v>
@@ -3450,30 +3489,30 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="V19" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W19" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X19" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="21" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -3483,19 +3522,19 @@
         <v>17</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L20" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N20" s="21" t="n">
         <v>10</v>
@@ -3566,30 +3605,30 @@
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="V24" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W24" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="21" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G25" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -3599,19 +3638,19 @@
         <v>17</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L25" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N25" s="21" t="n">
         <v>10</v>
@@ -3682,33 +3721,33 @@
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="V29" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W29" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X29" s="21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="30">
+        <v>311</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="30">
       <c r="A30" s="21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G30" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -3718,19 +3757,19 @@
         <v>17</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J30" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L30" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N30" s="21" t="n">
         <v>10</v>
@@ -3742,7 +3781,7 @@
         <v>14</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="T30" s="21" t="n">
         <v>10</v>
@@ -3804,30 +3843,30 @@
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="V34" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W34" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X34" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="35">
       <c r="A35" s="21" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G35" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -3837,19 +3876,19 @@
         <v>17</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J35" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L35" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N35" s="21" t="n">
         <v>10</v>
@@ -3861,7 +3900,7 @@
         <v>14</v>
       </c>
       <c r="R35" s="21" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="T35" s="21" t="n">
         <v>10</v>
@@ -3923,30 +3962,30 @@
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="V39" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W39" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X39" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G40" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -3956,19 +3995,19 @@
         <v>17</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L40" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N40" s="21" t="n">
         <v>10</v>
@@ -4039,30 +4078,30 @@
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="V44" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W44" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X44" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G45" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -4072,19 +4111,19 @@
         <v>17</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J45" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L45" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M45" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N45" s="21" t="n">
         <v>10</v>
@@ -4155,33 +4194,33 @@
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="V49" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W49" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X49" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="50">
       <c r="A50" s="21" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G50" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -4191,19 +4230,19 @@
         <v>17</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L50" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N50" s="21" t="n">
         <v>10</v>
@@ -4215,7 +4254,7 @@
         <v>14</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="T50" s="21" t="n">
         <v>10</v>
@@ -4236,22 +4275,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="51">
       <c r="A51" s="21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G51" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -4261,31 +4300,31 @@
         <v>17</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J51" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L51" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N51" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P51" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S51" s="21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="T51" s="21" t="n">
         <v>10</v>
@@ -4344,33 +4383,33 @@
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="V55" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W55" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X55" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="56">
       <c r="A56" s="21" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G56" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -4380,31 +4419,31 @@
         <v>17</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K56" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L56" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M56" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N56" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P56" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S56" s="21" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T56" s="21" t="n">
         <v>10</v>
@@ -4460,33 +4499,33 @@
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="V60" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W60" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X60" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="61">
       <c r="A61" s="21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G61" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -4496,31 +4535,31 @@
         <v>17</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J61" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L61" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M61" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N61" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P61" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S61" s="21" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="T61" s="21" t="n">
         <v>10</v>
@@ -4576,33 +4615,33 @@
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
       <c r="V65" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W65" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X65" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="66">
       <c r="A66" s="21" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G66" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -4612,31 +4651,31 @@
         <v>17</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J66" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L66" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M66" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N66" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P66" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="T66" s="21" t="n">
         <v>10</v>
@@ -4692,33 +4731,33 @@
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
       <c r="V70" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W70" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X70" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="71">
       <c r="A71" s="21" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G71" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -4728,31 +4767,31 @@
         <v>17</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J71" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L71" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M71" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N71" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P71" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="T71" s="21" t="n">
         <v>10</v>
@@ -4808,33 +4847,33 @@
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
       <c r="V75" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W75" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X75" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="76">
       <c r="A76" s="21" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G76" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -4844,31 +4883,31 @@
         <v>17</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J76" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L76" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M76" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N76" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P76" s="21" t="n">
         <v>14</v>
       </c>
       <c r="S76" s="21" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="T76" s="21" t="n">
         <v>10</v>
@@ -4924,33 +4963,33 @@
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
       <c r="V80" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W80" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X80" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="81">
       <c r="A81" s="21" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G81" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -4963,71 +5002,71 @@
         <v>2</v>
       </c>
       <c r="K81" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L81" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N81" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P81" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T81" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="U81" s="34" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Y81" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z81" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="Y82" s="21" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z82" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="83">
       <c r="Y83" s="21" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Z83" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="84">
       <c r="A84" s="21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G84" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5040,71 +5079,71 @@
         <v>2</v>
       </c>
       <c r="K84" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L84" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M84" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N84" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P84" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T84" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="U84" s="34" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Y84" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z84" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="Y85" s="21" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z85" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="86">
       <c r="Y86" s="21" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Z86" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="87">
       <c r="A87" s="21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G87" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5117,71 +5156,71 @@
         <v>2</v>
       </c>
       <c r="K87" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L87" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M87" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N87" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P87" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T87" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="U87" s="34" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Y87" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z87" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
       <c r="Y88" s="21" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z88" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="89">
       <c r="Y89" s="21" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Z89" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="90">
       <c r="A90" s="21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G90" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5194,71 +5233,71 @@
         <v>2</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L90" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M90" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N90" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P90" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T90" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="U90" s="34" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Y90" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z90" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
       <c r="Y91" s="21" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z91" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="92">
       <c r="Y92" s="21" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Z92" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="93">
       <c r="A93" s="21" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G93" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5271,25 +5310,25 @@
         <v>2</v>
       </c>
       <c r="K93" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L93" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M93" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N93" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P93" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T93" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="U93" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -5348,33 +5387,33 @@
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
       <c r="V97" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W97" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X97" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="98">
       <c r="A98" s="21" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G98" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5387,25 +5426,25 @@
         <v>2</v>
       </c>
       <c r="K98" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L98" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M98" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N98" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O98" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P98" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T98" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="U98" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -5464,33 +5503,33 @@
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
       <c r="V102" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W102" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X102" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="103">
       <c r="A103" s="21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G103" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5503,25 +5542,25 @@
         <v>2</v>
       </c>
       <c r="K103" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L103" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M103" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N103" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O103" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P103" s="21" t="n">
         <v>14</v>
       </c>
       <c r="T103" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="U103" s="34" t="b">
         <f aca="false">TRUE()</f>
@@ -5574,33 +5613,33 @@
       <c r="E107" s="18"/>
       <c r="F107" s="18"/>
       <c r="V107" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W107" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X107" s="21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="108">
+        <v>311</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="108">
       <c r="A108" s="21" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G108" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5613,31 +5652,31 @@
         <v>2</v>
       </c>
       <c r="K108" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L108" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M108" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N108" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O108" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P108" s="21" t="n">
         <v>14</v>
       </c>
       <c r="Q108" s="18" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="R108" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S108" s="21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="T108" s="21" t="n">
         <v>10</v>
@@ -5705,33 +5744,33 @@
       <c r="E112" s="18"/>
       <c r="F112" s="18"/>
       <c r="V112" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W112" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X112" s="21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="113">
+        <v>311</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="113">
       <c r="A113" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G113" s="34" t="b">
         <f aca="false">FALSE()</f>
@@ -5744,31 +5783,31 @@
         <v>2</v>
       </c>
       <c r="K113" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L113" s="21" t="n">
         <v>2</v>
       </c>
       <c r="M113" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N113" s="21" t="n">
         <v>10</v>
       </c>
       <c r="O113" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P113" s="21" t="n">
         <v>14</v>
       </c>
       <c r="Q113" s="18" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="R113" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S113" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="T113" s="21" t="n">
         <v>10</v>
@@ -5836,13 +5875,13 @@
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
       <c r="V117" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W117" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X117" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5866,65 +5905,65 @@
   </sheetPr>
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="21" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="227" min="4" style="28" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="228" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="21" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="227" min="4" style="28" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="228" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="23">
       <c r="A1" s="19" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="41.75" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C4" s="38" t="n">
         <v>9</v>
@@ -5939,7 +5978,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="18"/>
       <c r="B5" s="21" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C5" s="38" t="n">
         <v>9</v>
@@ -5954,7 +5993,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="18"/>
       <c r="B6" s="21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C6" s="38" t="n">
         <v>9</v>
@@ -5969,7 +6008,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="18"/>
       <c r="B7" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C7" s="38" t="n">
         <v>9</v>
@@ -5984,7 +6023,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="18"/>
       <c r="B8" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C8" s="38" t="n">
         <v>9</v>
@@ -5999,7 +6038,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="18"/>
       <c r="B9" s="21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C9" s="38" t="n">
         <v>9</v>
@@ -6014,7 +6053,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="18"/>
       <c r="B10" s="21" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C10" s="38" t="n">
         <v>9</v>
@@ -6029,7 +6068,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="18"/>
       <c r="B11" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C11" s="38" t="n">
         <v>9</v>
@@ -6044,7 +6083,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="18"/>
       <c r="B12" s="21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C12" s="38" t="n">
         <v>9</v>
@@ -6059,7 +6098,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="18"/>
       <c r="B13" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C13" s="38" t="n">
         <v>9</v>
@@ -6074,7 +6113,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="18"/>
       <c r="B14" s="21" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C14" s="38" t="n">
         <v>9</v>
@@ -6089,7 +6128,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="18"/>
       <c r="B15" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C15" s="38" t="n">
         <v>9</v>
@@ -6104,7 +6143,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="18"/>
       <c r="B16" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C16" s="38" t="n">
         <v>9</v>
@@ -6119,7 +6158,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="18"/>
       <c r="B17" s="21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C17" s="38" t="n">
         <v>9</v>
@@ -6134,7 +6173,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="18"/>
       <c r="B18" s="21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C18" s="38" t="n">
         <v>9</v>
@@ -6164,7 +6203,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="18"/>
       <c r="B20" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C20" s="38" t="n">
         <v>9</v>
@@ -6179,7 +6218,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="18"/>
       <c r="B21" s="21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C21" s="38" t="n">
         <v>9</v>
@@ -6194,7 +6233,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="18"/>
       <c r="B22" s="21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C22" s="38" t="n">
         <v>9</v>
@@ -6209,7 +6248,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="18"/>
       <c r="B23" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C23" s="38" t="n">
         <v>9</v>
@@ -6224,7 +6263,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="18"/>
       <c r="B24" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C24" s="38" t="n">
         <v>9</v>
@@ -6239,7 +6278,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="18"/>
       <c r="B25" s="21" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C25" s="38" t="n">
         <v>9</v>
@@ -6254,7 +6293,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="18"/>
       <c r="B26" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C26" s="38" t="n">
         <v>9</v>
@@ -6269,7 +6308,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="18"/>
       <c r="B27" s="21" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C27" s="38" t="n">
         <v>9</v>
@@ -6284,7 +6323,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="18"/>
       <c r="B28" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C28" s="38" t="n">
         <v>9</v>
@@ -6299,7 +6338,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="18"/>
       <c r="B29" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C29" s="38" t="n">
         <v>9</v>
@@ -6314,7 +6353,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="18"/>
       <c r="B30" s="21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C30" s="38" t="n">
         <v>9</v>
@@ -6329,7 +6368,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="18"/>
       <c r="B31" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C31" s="38" t="n">
         <v>9</v>
@@ -6359,7 +6398,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="18"/>
       <c r="B33" s="21" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C33" s="38" t="n">
         <v>9</v>
@@ -6374,7 +6413,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="18"/>
       <c r="B34" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C34" s="38" t="n">
         <v>9</v>
@@ -6389,7 +6428,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="A35" s="18"/>
       <c r="B35" s="21" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C35" s="38" t="n">
         <v>9</v>
@@ -6404,7 +6443,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="18"/>
       <c r="B36" s="21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C36" s="38" t="n">
         <v>9</v>
@@ -6419,7 +6458,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="18"/>
       <c r="B37" s="21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C37" s="38" t="n">
         <v>9</v>
@@ -6434,7 +6473,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="18"/>
       <c r="B38" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C38" s="38" t="n">
         <v>9</v>
@@ -6449,7 +6488,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="18"/>
       <c r="B39" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C39" s="38" t="n">
         <v>9</v>
@@ -6464,7 +6503,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="18"/>
       <c r="B40" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C40" s="38" t="n">
         <v>9</v>
@@ -6479,7 +6518,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="18"/>
       <c r="B41" s="21" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C41" s="38" t="n">
         <v>9</v>
@@ -6494,7 +6533,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="18"/>
       <c r="B42" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C42" s="38" t="n">
         <v>9</v>
@@ -6509,7 +6548,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="18"/>
       <c r="B43" s="21" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C43" s="38" t="n">
         <v>9</v>
@@ -6524,7 +6563,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="18"/>
       <c r="B44" s="21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C44" s="38" t="n">
         <v>9</v>
@@ -6539,7 +6578,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="18"/>
       <c r="B45" s="21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C45" s="38" t="n">
         <v>9</v>
@@ -6554,7 +6593,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
       <c r="A46" s="18"/>
       <c r="B46" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C46" s="38" t="n">
         <v>9</v>
@@ -6569,7 +6608,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="18"/>
       <c r="B47" s="21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C47" s="38" t="n">
         <v>9</v>
@@ -6583,7 +6622,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="B48" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C48" s="38" t="n">
         <v>9</v>
@@ -6597,7 +6636,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="B49" s="21" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C49" s="38" t="n">
         <v>9</v>
@@ -6611,7 +6650,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="B50" s="21" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C50" s="38" t="n">
         <v>9</v>
@@ -6625,7 +6664,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="B51" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C51" s="38" t="n">
         <v>9</v>
@@ -6639,7 +6678,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="B52" s="21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C52" s="38" t="n">
         <v>9</v>
@@ -6653,10 +6692,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C53" s="38" t="n">
         <v>9</v>
@@ -6670,7 +6709,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="B54" s="21" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C54" s="38" t="n">
         <v>9</v>
@@ -6685,7 +6724,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="A55" s="18"/>
       <c r="B55" s="21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C55" s="38" t="n">
         <v>9</v>
@@ -6700,7 +6739,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="18"/>
       <c r="B56" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C56" s="38" t="n">
         <v>9</v>
@@ -6715,7 +6754,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="A57" s="18"/>
       <c r="B57" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C57" s="38" t="n">
         <v>9</v>
@@ -6730,7 +6769,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
       <c r="A58" s="18"/>
       <c r="B58" s="21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C58" s="38" t="n">
         <v>9</v>
@@ -6745,7 +6784,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="A59" s="18"/>
       <c r="B59" s="21" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C59" s="38" t="n">
         <v>9</v>
@@ -6760,7 +6799,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
       <c r="A60" s="18"/>
       <c r="B60" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C60" s="38" t="n">
         <v>9</v>
@@ -6775,7 +6814,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
       <c r="A61" s="18"/>
       <c r="B61" s="21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C61" s="38" t="n">
         <v>9</v>
@@ -6790,7 +6829,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
       <c r="A62" s="18"/>
       <c r="B62" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C62" s="38" t="n">
         <v>9</v>
@@ -6805,7 +6844,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
       <c r="A63" s="18"/>
       <c r="B63" s="21" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C63" s="38" t="n">
         <v>9</v>
@@ -6820,7 +6859,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
       <c r="A64" s="18"/>
       <c r="B64" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C64" s="38" t="n">
         <v>9</v>
@@ -6835,7 +6874,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="18"/>
       <c r="B65" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C65" s="38" t="n">
         <v>9</v>
@@ -6850,7 +6889,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="18"/>
       <c r="B66" s="21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C66" s="38" t="n">
         <v>9</v>
@@ -6865,7 +6904,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="67">
       <c r="A67" s="18"/>
       <c r="B67" s="21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C67" s="38" t="n">
         <v>9</v>
@@ -6895,7 +6934,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="18"/>
       <c r="B69" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C69" s="38" t="n">
         <v>9</v>
@@ -6910,7 +6949,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="18"/>
       <c r="B70" s="21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C70" s="38" t="n">
         <v>9</v>
@@ -6925,7 +6964,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="18"/>
       <c r="B71" s="21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C71" s="38" t="n">
         <v>9</v>
@@ -6940,7 +6979,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
       <c r="A72" s="18"/>
       <c r="B72" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C72" s="38" t="n">
         <v>9</v>
@@ -6955,7 +6994,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="73">
       <c r="A73" s="18"/>
       <c r="B73" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C73" s="38" t="n">
         <v>9</v>
@@ -6970,7 +7009,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="18"/>
       <c r="B74" s="21" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C74" s="38" t="n">
         <v>9</v>
@@ -6985,7 +7024,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="A75" s="18"/>
       <c r="B75" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C75" s="38" t="n">
         <v>9</v>
@@ -7000,7 +7039,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="18"/>
       <c r="B76" s="21" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C76" s="38" t="n">
         <v>9</v>
@@ -7015,7 +7054,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="18"/>
       <c r="B77" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C77" s="38" t="n">
         <v>9</v>
@@ -7030,7 +7069,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="A78" s="18"/>
       <c r="B78" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C78" s="38" t="n">
         <v>9</v>
@@ -7045,7 +7084,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="A79" s="18"/>
       <c r="B79" s="21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C79" s="38" t="n">
         <v>9</v>
@@ -7060,7 +7099,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="18"/>
       <c r="B80" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C80" s="38" t="n">
         <v>9</v>
@@ -7090,7 +7129,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="A82" s="18"/>
       <c r="B82" s="21" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C82" s="38" t="n">
         <v>9</v>
@@ -7105,7 +7144,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
       <c r="A83" s="18"/>
       <c r="B83" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C83" s="38" t="n">
         <v>9</v>
@@ -7120,7 +7159,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
       <c r="A84" s="18"/>
       <c r="B84" s="21" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C84" s="38" t="n">
         <v>9</v>
@@ -7135,7 +7174,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="A85" s="18"/>
       <c r="B85" s="21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C85" s="38" t="n">
         <v>9</v>
@@ -7150,7 +7189,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
       <c r="A86" s="18"/>
       <c r="B86" s="21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C86" s="38" t="n">
         <v>9</v>
@@ -7165,7 +7204,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
       <c r="A87" s="18"/>
       <c r="B87" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C87" s="38" t="n">
         <v>9</v>
@@ -7180,7 +7219,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
       <c r="A88" s="18"/>
       <c r="B88" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C88" s="38" t="n">
         <v>9</v>
@@ -7195,7 +7234,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
       <c r="A89" s="18"/>
       <c r="B89" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C89" s="38" t="n">
         <v>9</v>
@@ -7210,7 +7249,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
       <c r="A90" s="18"/>
       <c r="B90" s="21" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C90" s="38" t="n">
         <v>9</v>
@@ -7225,7 +7264,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
       <c r="A91" s="18"/>
       <c r="B91" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C91" s="38" t="n">
         <v>9</v>
@@ -7240,7 +7279,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="92">
       <c r="A92" s="18"/>
       <c r="B92" s="21" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C92" s="38" t="n">
         <v>9</v>
@@ -7255,7 +7294,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
       <c r="A93" s="18"/>
       <c r="B93" s="21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C93" s="38" t="n">
         <v>9</v>
@@ -7270,7 +7309,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="94">
       <c r="A94" s="18"/>
       <c r="B94" s="21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C94" s="38" t="n">
         <v>9</v>
@@ -7285,7 +7324,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="95">
       <c r="A95" s="18"/>
       <c r="B95" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C95" s="38" t="n">
         <v>9</v>
@@ -7300,7 +7339,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="96">
       <c r="A96" s="18"/>
       <c r="B96" s="21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C96" s="38" t="n">
         <v>9</v>
@@ -7314,7 +7353,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="97">
       <c r="B97" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C97" s="38" t="n">
         <v>9</v>
@@ -7328,7 +7367,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="98">
       <c r="B98" s="21" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C98" s="38" t="n">
         <v>9</v>
@@ -7342,7 +7381,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="99">
       <c r="B99" s="21" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C99" s="38" t="n">
         <v>9</v>
@@ -7356,7 +7395,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="100">
       <c r="B100" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C100" s="38" t="n">
         <v>9</v>
@@ -7370,7 +7409,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="101">
       <c r="B101" s="21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C101" s="38" t="n">
         <v>9</v>
@@ -7384,10 +7423,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="102">
       <c r="A102" s="18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C102" s="38" t="n">
         <v>9</v>
@@ -7402,7 +7441,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="103">
       <c r="A103" s="18"/>
       <c r="B103" s="21" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C103" s="38" t="n">
         <v>9</v>
@@ -7417,7 +7456,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="104">
       <c r="A104" s="18"/>
       <c r="B104" s="21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C104" s="38" t="n">
         <v>9</v>
@@ -7432,7 +7471,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="105">
       <c r="A105" s="18"/>
       <c r="B105" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C105" s="38" t="n">
         <v>9</v>
@@ -7447,7 +7486,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="106">
       <c r="A106" s="18"/>
       <c r="B106" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C106" s="38" t="n">
         <v>9</v>
@@ -7462,7 +7501,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="107">
       <c r="A107" s="18"/>
       <c r="B107" s="21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C107" s="38" t="n">
         <v>9</v>
@@ -7477,7 +7516,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="108">
       <c r="A108" s="18"/>
       <c r="B108" s="21" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C108" s="38" t="n">
         <v>9</v>
@@ -7492,7 +7531,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="109">
       <c r="A109" s="18"/>
       <c r="B109" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C109" s="38" t="n">
         <v>9</v>
@@ -7507,7 +7546,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="110">
       <c r="A110" s="18"/>
       <c r="B110" s="21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C110" s="38" t="n">
         <v>9</v>
@@ -7522,7 +7561,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="111">
       <c r="A111" s="18"/>
       <c r="B111" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C111" s="38" t="n">
         <v>9</v>
@@ -7537,7 +7576,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="112">
       <c r="A112" s="18"/>
       <c r="B112" s="21" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C112" s="38" t="n">
         <v>9</v>
@@ -7552,7 +7591,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="113">
       <c r="A113" s="18"/>
       <c r="B113" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C113" s="38" t="n">
         <v>9</v>
@@ -7567,7 +7606,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="114">
       <c r="A114" s="18"/>
       <c r="B114" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C114" s="38" t="n">
         <v>9</v>
@@ -7582,7 +7621,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="115">
       <c r="A115" s="18"/>
       <c r="B115" s="21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C115" s="38" t="n">
         <v>9</v>
@@ -7597,7 +7636,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="116">
       <c r="A116" s="18"/>
       <c r="B116" s="21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C116" s="38" t="n">
         <v>9</v>
@@ -7627,7 +7666,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="118">
       <c r="A118" s="18"/>
       <c r="B118" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C118" s="38" t="n">
         <v>9</v>
@@ -7642,7 +7681,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="119">
       <c r="A119" s="18"/>
       <c r="B119" s="21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C119" s="38" t="n">
         <v>9</v>
@@ -7657,7 +7696,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="120">
       <c r="A120" s="18"/>
       <c r="B120" s="21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C120" s="38" t="n">
         <v>9</v>
@@ -7672,7 +7711,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="121">
       <c r="A121" s="18"/>
       <c r="B121" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C121" s="38" t="n">
         <v>9</v>
@@ -7687,7 +7726,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="122">
       <c r="A122" s="18"/>
       <c r="B122" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C122" s="38" t="n">
         <v>9</v>
@@ -7702,7 +7741,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="123">
       <c r="A123" s="18"/>
       <c r="B123" s="21" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C123" s="38" t="n">
         <v>9</v>
@@ -7717,7 +7756,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="124">
       <c r="A124" s="18"/>
       <c r="B124" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C124" s="38" t="n">
         <v>9</v>
@@ -7732,7 +7771,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="125">
       <c r="A125" s="18"/>
       <c r="B125" s="21" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C125" s="38" t="n">
         <v>9</v>
@@ -7747,7 +7786,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="126">
       <c r="A126" s="18"/>
       <c r="B126" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C126" s="38" t="n">
         <v>9</v>
@@ -7762,7 +7801,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="127">
       <c r="A127" s="18"/>
       <c r="B127" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C127" s="38" t="n">
         <v>9</v>
@@ -7777,7 +7816,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="128">
       <c r="A128" s="18"/>
       <c r="B128" s="21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C128" s="38" t="n">
         <v>9</v>
@@ -7792,7 +7831,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="129">
       <c r="A129" s="18"/>
       <c r="B129" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C129" s="38" t="n">
         <v>9</v>
@@ -7822,7 +7861,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="131">
       <c r="A131" s="18"/>
       <c r="B131" s="21" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C131" s="38" t="n">
         <v>9</v>
@@ -7837,7 +7876,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="132">
       <c r="A132" s="18"/>
       <c r="B132" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C132" s="38" t="n">
         <v>9</v>
@@ -7852,7 +7891,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="133">
       <c r="A133" s="18"/>
       <c r="B133" s="21" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C133" s="38" t="n">
         <v>9</v>
@@ -7867,7 +7906,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="134">
       <c r="A134" s="18"/>
       <c r="B134" s="21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C134" s="38" t="n">
         <v>9</v>
@@ -7882,7 +7921,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="135">
       <c r="A135" s="18"/>
       <c r="B135" s="21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C135" s="38" t="n">
         <v>9</v>
@@ -7897,7 +7936,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="136">
       <c r="A136" s="18"/>
       <c r="B136" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C136" s="38" t="n">
         <v>9</v>
@@ -7912,7 +7951,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="137">
       <c r="A137" s="18"/>
       <c r="B137" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C137" s="38" t="n">
         <v>9</v>
@@ -7927,7 +7966,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="138">
       <c r="A138" s="18"/>
       <c r="B138" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C138" s="38" t="n">
         <v>9</v>
@@ -7942,7 +7981,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="139">
       <c r="A139" s="18"/>
       <c r="B139" s="21" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C139" s="38" t="n">
         <v>9</v>
@@ -7957,7 +7996,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="140">
       <c r="A140" s="18"/>
       <c r="B140" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C140" s="38" t="n">
         <v>9</v>
@@ -7972,7 +8011,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="141">
       <c r="A141" s="18"/>
       <c r="B141" s="21" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C141" s="38" t="n">
         <v>9</v>
@@ -7987,7 +8026,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="142">
       <c r="A142" s="18"/>
       <c r="B142" s="21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C142" s="38" t="n">
         <v>9</v>
@@ -8002,7 +8041,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="143">
       <c r="A143" s="18"/>
       <c r="B143" s="21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C143" s="38" t="n">
         <v>9</v>
@@ -8017,7 +8056,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="144">
       <c r="A144" s="18"/>
       <c r="B144" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C144" s="38" t="n">
         <v>9</v>
@@ -8032,7 +8071,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="145">
       <c r="A145" s="18"/>
       <c r="B145" s="21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C145" s="38" t="n">
         <v>9</v>
@@ -8046,7 +8085,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="146">
       <c r="B146" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C146" s="38" t="n">
         <v>9</v>
@@ -8060,7 +8099,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="147">
       <c r="B147" s="21" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C147" s="38" t="n">
         <v>9</v>
@@ -8074,7 +8113,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="148">
       <c r="B148" s="21" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C148" s="38" t="n">
         <v>9</v>
@@ -8088,7 +8127,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="149">
       <c r="B149" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C149" s="38" t="n">
         <v>9</v>
@@ -8102,7 +8141,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="150">
       <c r="B150" s="21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C150" s="38" t="n">
         <v>9</v>
@@ -8132,29 +8171,29 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.4313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="64.7647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="31.3490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="34.6745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.4313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.7137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="66.4039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="32.1176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="35.5529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.7137254901961"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="1" s="9">
       <c r="A1" s="23" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
@@ -8165,87 +8204,87 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -8254,13 +8293,13 @@
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F5" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>446</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>444</v>
       </c>
       <c r="H5" s="28" t="n">
         <v>0</v>
@@ -8269,29 +8308,29 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H6" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -8300,19 +8339,19 @@
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H7" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -8321,46 +8360,46 @@
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H8" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="9">
       <c r="A9" s="28" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H9" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -8369,19 +8408,19 @@
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H10" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -8390,46 +8429,46 @@
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H11" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="12">
       <c r="A12" s="28" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H12" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -8438,19 +8477,19 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H13" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
@@ -8459,46 +8498,46 @@
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H14" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="A15" s="28" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H15" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -8507,19 +8546,19 @@
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H16" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -8528,33 +8567,33 @@
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H17" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="28" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -8564,16 +8603,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
       <c r="A19" s="28" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -8583,16 +8622,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="A20" s="28" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -8602,16 +8641,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -8621,16 +8660,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
       <c r="A22" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>356</v>
-      </c>
       <c r="C22" s="28" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -8640,16 +8679,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="23">
       <c r="A23" s="28" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -8659,22 +8698,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H24" s="28" t="n">
         <v>0</v>
@@ -8682,13 +8721,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="E25" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H25" s="28" t="n">
         <v>0</v>
@@ -8696,13 +8735,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="E26" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H26" s="28" t="n">
         <v>0</v>
@@ -8710,13 +8749,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
       <c r="E27" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H27" s="28" t="n">
         <v>0</v>
@@ -8724,13 +8763,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="E28" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H28" s="28" t="n">
         <v>0</v>
@@ -8738,22 +8777,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H29" s="28" t="n">
         <v>0</v>
@@ -8761,13 +8800,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="E30" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H30" s="28" t="n">
         <v>0</v>
@@ -8775,13 +8814,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="E31" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H31" s="28" t="n">
         <v>0</v>
@@ -8789,13 +8828,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="32">
       <c r="E32" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H32" s="28" t="n">
         <v>0</v>
@@ -8803,13 +8842,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="E33" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H33" s="28" t="n">
         <v>0</v>
@@ -8836,40 +8875,40 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="C8" activeCellId="0" pane="topLeft" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="23" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="20"/>
       <c r="E1" s="26"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8877,26 +8916,26 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -8917,89 +8956,110 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="C10" activeCellId="0" pane="topLeft" sqref="C10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.6352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5882352941177"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="0" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.2588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="23" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B1" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>492</v>
+        <v>494</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>495</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="41" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="41" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>499</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="41" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="41" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>502</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="41" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -9018,184 +9078,166 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="E20" activeCellId="0" pane="topLeft" sqref="E20"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="C12" activeCellId="0" pane="topLeft" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="14.5803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="14.5803921568627"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="14.9490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="0" width="14.9490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="23" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B1" s="24"/>
-      <c r="G1" s="0" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="F1" s="0" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>238</v>
+        <v>494</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>238</v>
+        <v>511</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>506</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1000</v>
+        <v>514</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>515</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="G4" s="42"/>
+        <v>489</v>
+      </c>
+      <c r="F4" s="42"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>5000</v>
+        <v>514</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>517</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="G5" s="42"/>
+        <v>489</v>
+      </c>
+      <c r="F5" s="42"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="G6" s="42"/>
+        <v>519</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="F6" s="42"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="G7" s="42"/>
+        <v>519</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="F7" s="42"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>20</v>
+        <v>523</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>524</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>20</v>
+        <v>525</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>524</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>516</v>
+        <v>526</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>527</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>516</v>
+        <v>528</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -9216,18 +9258,18 @@
   </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="C19" activeCellId="0" pane="topLeft" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="31.321568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="32.0980392156863"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="43">
       <c r="A1" s="14" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -9253,72 +9295,72 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -9339,102 +9381,102 @@
   </sheetPr>
   <dimension ref="A2:M4"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="15.7647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="12.0196078431373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="26.8901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="26.5372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="15.7647058823529"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="5" width="24.4196078431373"/>
-    <col collapsed="false" hidden="false" max="257" min="14" style="5" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="16.1607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="12.3176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="27.5686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="27.2039215686274"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="16.1607843137255"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="5" width="25.0078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="14" style="5" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>1234567890</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9460,19 +9502,19 @@
   </sheetPr>
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="32.8862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="63.6823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="33.7176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="65.2823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
       <c r="A1" s="23" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -9498,34 +9540,34 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -9546,24 +9588,24 @@
   </sheetPr>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="29.1764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="2" style="28" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="29.9019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="2" style="28" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
       <c r="A1" s="23" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="23" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="F1" s="44"/>
       <c r="G1" s="26"/>
@@ -9586,62 +9628,62 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C4" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -9651,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F4" s="28" t="n">
         <v>0</v>
@@ -9665,7 +9707,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="E5" s="28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F5" s="28" t="n">
         <v>0</v>
@@ -9679,7 +9721,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="E6" s="28" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F6" s="28" t="n">
         <v>0</v>
@@ -9707,7 +9749,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="E8" s="28" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F8" s="28" t="n">
         <v>0</v>
@@ -9721,7 +9763,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="E9" s="28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F9" s="28" t="n">
         <v>0</v>
@@ -9735,7 +9777,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="E10" s="28" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F10" s="28" t="n">
         <v>0</v>
@@ -9749,7 +9791,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="E11" s="28" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F11" s="28" t="n">
         <v>0</v>
@@ -9763,7 +9805,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="E12" s="28" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F12" s="28" t="n">
         <v>0</v>
@@ -9777,7 +9819,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="E13" s="28" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F13" s="28" t="n">
         <v>0</v>
@@ -9791,7 +9833,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="E14" s="28" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F14" s="28" t="n">
         <v>0</v>
@@ -9805,7 +9847,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="E15" s="28" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F15" s="28" t="n">
         <v>0</v>
@@ -9833,7 +9875,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="E17" s="28" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F17" s="28" t="n">
         <v>0</v>
@@ -9847,7 +9889,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="E18" s="28" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F18" s="28" t="n">
         <v>0</v>
@@ -9861,7 +9903,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="E19" s="28" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F19" s="28" t="n">
         <v>0</v>
@@ -9875,7 +9917,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="E20" s="28" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F20" s="28" t="n">
         <v>0</v>
@@ -9889,10 +9931,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C21" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -9902,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F21" s="28" t="n">
         <v>5</v>
@@ -9916,7 +9958,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="E22" s="28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F22" s="28" t="n">
         <v>5</v>
@@ -9930,7 +9972,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="E23" s="28" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F23" s="28" t="n">
         <v>5</v>
@@ -9958,7 +10000,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="E25" s="28" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F25" s="28" t="n">
         <v>5</v>
@@ -9972,7 +10014,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="E26" s="28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F26" s="28" t="n">
         <v>5</v>
@@ -9986,7 +10028,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="E27" s="28" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F27" s="28" t="n">
         <v>5</v>
@@ -10000,7 +10042,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="E28" s="28" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F28" s="28" t="n">
         <v>5</v>
@@ -10014,7 +10056,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="E29" s="28" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F29" s="28" t="n">
         <v>5</v>
@@ -10028,7 +10070,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="E30" s="28" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F30" s="28" t="n">
         <v>5</v>
@@ -10042,7 +10084,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="E31" s="28" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F31" s="28" t="n">
         <v>5</v>
@@ -10056,7 +10098,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="E32" s="28" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F32" s="28" t="n">
         <v>5</v>
@@ -10084,7 +10126,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="E34" s="28" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F34" s="28" t="n">
         <v>5</v>
@@ -10098,7 +10140,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="E35" s="28" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F35" s="28" t="n">
         <v>5</v>
@@ -10112,7 +10154,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="E36" s="28" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F36" s="28" t="n">
         <v>5</v>
@@ -10126,7 +10168,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="E37" s="28" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F37" s="28" t="n">
         <v>5</v>
@@ -10156,21 +10198,21 @@
   </sheetPr>
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="19.2745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="29.1764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="32.3529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="31" width="27.7647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="31" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="19.7607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="29.9019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="33.1647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="31" width="28.4549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="31" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
       <c r="A1" s="14" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -10197,36 +10239,36 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
@@ -10234,16 +10276,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
@@ -10256,16 +10298,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
@@ -10278,16 +10320,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
@@ -10313,20 +10355,20 @@
   </sheetPr>
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="25.443137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="31" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="24.0588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="31" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="26.0745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="31" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="24.6549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="31" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
       <c r="A1" s="14" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -10353,99 +10395,99 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="45" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="A5" s="45" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="A6" s="45" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -10466,18 +10508,18 @@
   </sheetPr>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="8" width="33.9686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="8" width="34.8313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
       <c r="A1" s="23" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -10503,50 +10545,50 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="8" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="8" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10609,19 @@
   </sheetPr>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="47.4196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="38.0392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="48.6039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="39"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
       <c r="A1" s="23" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -10605,50 +10647,50 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="C4" s="28" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="E4" s="28" t="n">
         <v>56</v>
@@ -10656,16 +10698,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="C5" s="28" t="n">
         <v>5</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="E5" s="28" t="n">
         <v>20</v>
@@ -10673,13 +10715,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="C6" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="E6" s="28" t="n">
         <v>30</v>
@@ -10687,16 +10729,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="28" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="C7" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E7" s="28" t="n">
         <v>35</v>
@@ -10704,16 +10746,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="28" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="C8" s="28" t="n">
         <v>100</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E8" s="28" t="n">
         <v>55</v>
@@ -10721,7 +10763,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="28" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="B9" s="46" t="n">
         <v>0.96</v>
@@ -10730,7 +10772,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E9" s="28" t="n">
         <v>30</v>
@@ -10738,14 +10780,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="28" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28" t="n">
         <v>1000</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E10" s="28" t="n">
         <v>22.75</v>
@@ -10753,14 +10795,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="28" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E11" s="28" t="n">
         <v>180</v>
@@ -10768,14 +10810,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="28" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E12" s="28" t="n">
         <v>20</v>
@@ -10783,16 +10825,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="28" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="C13" s="28" t="n">
         <v>100</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E13" s="28" t="n">
         <v>20</v>
@@ -10800,14 +10842,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="28" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28" t="n">
         <v>2.5</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="E14" s="28" t="n">
         <v>520</v>
@@ -10815,14 +10857,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="28" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28" t="n">
         <v>5</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E15" s="28" t="n">
         <v>329</v>
@@ -10830,14 +10872,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="28" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E16" s="28" t="n">
         <v>250</v>
@@ -10845,13 +10887,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="28" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C17" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E17" s="28" t="n">
         <v>180</v>
@@ -10859,14 +10901,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="28" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E18" s="28" t="n">
         <v>245</v>
@@ -10874,14 +10916,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="28" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E19" s="28" t="n">
         <v>186</v>
@@ -10889,16 +10931,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="28" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="C20" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>516</v>
+        <v>626</v>
       </c>
       <c r="E20" s="28" t="n">
         <v>20</v>
@@ -10906,16 +10948,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="C21" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>516</v>
+        <v>626</v>
       </c>
       <c r="E21" s="28" t="n">
         <v>13.6</v>
@@ -10923,16 +10965,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="28" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="C22" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>516</v>
+        <v>626</v>
       </c>
       <c r="E22" s="28" t="n">
         <v>90</v>
@@ -10940,13 +10982,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="28" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="C23" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>516</v>
+        <v>626</v>
       </c>
       <c r="E23" s="28" t="n">
         <v>35</v>
@@ -10970,21 +11012,21 @@
   </sheetPr>
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="28" width="19.9960784313725"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="23.3882352941176"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="28" width="19.9960784313725"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="28" width="20.5019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="23.9764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="28" width="20.5019607843137"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
       <c r="A1" s="23" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -11007,74 +11049,74 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="D4" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -11082,10 +11124,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -11093,7 +11135,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -11101,7 +11143,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -11109,7 +11151,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -11117,7 +11159,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -11125,7 +11167,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -11133,7 +11175,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -11141,7 +11183,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -11149,7 +11191,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="H13" s="28" t="n">
         <v>3</v>
@@ -11157,22 +11199,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="D14" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -11180,10 +11222,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -11191,7 +11233,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -11199,7 +11241,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
@@ -11207,7 +11249,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
@@ -11215,7 +11257,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -11223,7 +11265,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
@@ -11231,7 +11273,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
@@ -11239,7 +11281,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -11247,7 +11289,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="H23" s="28" t="n">
         <v>3</v>
@@ -11255,39 +11297,39 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="24">
       <c r="A24" s="28" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="D24" s="28" t="n">
         <v>5</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="E25" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="E26" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="E27" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="E28" s="28" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -11308,250 +11350,250 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="8" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="26.5372549019608"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="26.0039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="8" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="27.2039215686274"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="26.6549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="8" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
       <c r="A1" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -11572,163 +11614,163 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="C9" activeCellId="0" pane="topLeft" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="8" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="23.3882352941176"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="8" width="19.8"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="23"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="25.7960784313725"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="8" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="23.9764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="8" width="20.2941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="23.5882352941176"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="26.4470588235294"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="8" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
       <c r="A1" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="K5" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -11749,77 +11791,77 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="F6" activeCellId="0" pane="topLeft" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="30.956862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="8" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="31.7294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="8" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
       <c r="A1" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -11840,21 +11882,21 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="29.556862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="27.9725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="13" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="30.3176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="28.6901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="13" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="16">
       <c r="A1" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="14"/>
@@ -11864,42 +11906,42 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="14" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -11907,20 +11949,20 @@
         <v>440</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -11928,20 +11970,20 @@
         <v>320</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -11962,32 +12004,32 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A7" activeCellId="0" pane="topLeft" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="18.2235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="13" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.0470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="22.121568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="13" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="24.7647058823529"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="13" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="17" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="13" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="18.678431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="13" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.5803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="22.6941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="7" style="13" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="25.3882352941176"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="13" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="17" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="13" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="16">
       <c r="A1" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -12002,149 +12044,149 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P4" s="17" t="b">
         <f aca="false">TRUE()</f>
@@ -12153,49 +12195,49 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="O5" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P5" s="17" t="b">
         <f aca="false">TRUE()</f>
@@ -12204,49 +12246,49 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P6" s="17" t="b">
         <f aca="false">TRUE()</f>
@@ -12255,49 +12297,49 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>181</v>
-      </c>
       <c r="L7" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P7" s="17" t="b">
         <f aca="false">TRUE()</f>
@@ -12322,136 +12364,136 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="22.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="38.9254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="23.3882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="18" width="20.8823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="19.9960784313725"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="18" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="23.2352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="39.9137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="23.9764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="18" width="21.4156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="20.5019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="18" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="20">
       <c r="A1" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="I5" s="18" t="s">
         <v>208</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -12472,35 +12514,35 @@
   </sheetPr>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView colorId="9" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A10" activeCellId="0" pane="topLeft" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="24.4196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="25.6392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="25.0078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="26.2901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="1" s="9">
       <c r="A1" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="24"/>
       <c r="G1" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
@@ -12514,104 +12556,104 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="29" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C4" s="28" t="n">
         <v>5</v>
@@ -12636,7 +12678,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K4" s="28" t="n">
         <v>21</v>
@@ -12648,7 +12690,7 @@
         <v>28</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O4" s="29" t="n">
         <v>1000</v>
@@ -12661,10 +12703,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C5" s="28" t="n">
         <v>5</v>
@@ -12689,7 +12731,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K5" s="28" t="n">
         <v>23</v>
@@ -12701,7 +12743,7 @@
         <v>24</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O5" s="29" t="n">
         <v>1000</v>
@@ -12714,10 +12756,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>235</v>
       </c>
       <c r="C6" s="28" t="n">
         <v>5</v>
@@ -12742,7 +12784,7 @@
         <v>25</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K6" s="28" t="n">
         <v>24</v>
@@ -12754,7 +12796,7 @@
         <v>25</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O6" s="29" t="n">
         <v>1000</v>

--- a/bika/lims/setupdata/_testing.xlsx
+++ b/bika/lims/setupdata/_testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="17" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="940" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="16" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="939" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="649">
   <si>
     <t>Password lifetime</t>
   </si>
@@ -1524,6 +1524,9 @@
     <t>Preservations</t>
   </si>
   <si>
+    <t>Try keep the titles short!</t>
+  </si>
+  <si>
     <t>ContainerType</t>
   </si>
   <si>
@@ -1536,16 +1539,16 @@
     <t>Plastic, Glass</t>
   </si>
   <si>
-    <t>Cool, 4 deg. C</t>
+    <t>Cool 4°C</t>
   </si>
   <si>
     <t>{'days':2, 'hours':0, 'minutes':0}</t>
   </si>
   <si>
-    <t>Cool, 4 deg. C, H2SO4 - pH below 2</t>
-  </si>
-  <si>
-    <t>Filter on site, Cool, 4 deg. C</t>
+    <t>Cool 4°C, H2SO4 - pH &lt; 2</t>
+  </si>
+  <si>
+    <t>Filter on site, Cool 4°C</t>
   </si>
   <si>
     <t>{'days':4, 'hours':0, 'minutes':0}</t>
@@ -2272,8 +2275,8 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
@@ -2371,7 +2374,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
@@ -2484,11 +2487,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="21.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="42.6156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="8" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="30.3176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="21.8862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="42.8352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="8" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="30.4705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="8" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
@@ -2656,9 +2659,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="35.9333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="55.678431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="31" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="36.1137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="55.956862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="31" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
@@ -2765,10 +2768,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="88.5176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="25.5411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="88.9607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="25.6666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
@@ -2859,15 +2862,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="21" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="20" min="8" style="21" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="34" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="21" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="18" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="21" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="28" min="25" style="8" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="29" style="28" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="21" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="20" min="8" style="21" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="34" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="21" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="18" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="21" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="28" min="25" style="8" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="29" style="28" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="23">
@@ -5910,9 +5913,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="21" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="227" min="4" style="28" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="228" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="21" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="227" min="4" style="28" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="228" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="23">
@@ -8176,11 +8179,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.7137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="66.4039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="32.1176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="35.5529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.7137254901961"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="66.7372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="32.278431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="35.7254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="8" width="11.7764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="1" s="9">
@@ -8747,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="E27" s="8" t="s">
         <v>484</v>
       </c>
@@ -8826,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="E32" s="8" t="s">
         <v>484</v>
       </c>
@@ -8880,7 +8883,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8956,25 +8959,27 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="C27" activeCellId="0" pane="topLeft" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.2588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="31.4941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="19.1725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="20.278431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="30.0352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="B1" s="26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
@@ -8982,84 +8987,82 @@
         <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="3">
       <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
-      <c r="A4" s="41" t="s">
+      <c r="D3" s="41" t="s">
         <v>496</v>
       </c>
-      <c r="C4" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="4">
+      <c r="A4" s="40" t="s">
         <v>497</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
-      <c r="A5" s="41" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="5">
+      <c r="A5" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="0" t="s">
-        <v>497</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
-      <c r="A6" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>497</v>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="6" s="40">
+      <c r="A6" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="A7" s="41" t="s">
-        <v>501</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="0" t="s">
-        <v>497</v>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="7">
+      <c r="A7" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="A8" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="B8" s="41" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="8">
+      <c r="A8" s="40" t="s">
         <v>504</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>489</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -9080,29 +9083,29 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="C12" activeCellId="0" pane="topLeft" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="14.9490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="0" width="14.9490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.0235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5882352941177"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8470588235294"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="0" width="15.0235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="23" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B1" s="24"/>
       <c r="F1" s="0" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="2">
+        <v>508</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
@@ -9110,47 +9113,47 @@
         <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>508</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" s="41" t="s">
         <v>511</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>512</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>510</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>489</v>
@@ -9159,13 +9162,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>489</v>
@@ -9174,13 +9177,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>490</v>
@@ -9189,13 +9192,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>490</v>
@@ -9204,10 +9207,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>489</v>
@@ -9215,10 +9218,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>525</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>524</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>490</v>
@@ -9226,18 +9229,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -9263,13 +9266,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="32.0980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="32.2627450980392"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="43">
       <c r="A1" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -9301,10 +9304,10 @@
         <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
@@ -9318,7 +9321,7 @@
         <v>275</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -9326,41 +9329,41 @@
         <v>360</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -9386,13 +9389,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="16.1607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="12.3176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="27.5686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="27.2039215686274"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="16.1607843137255"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="5" width="25.0078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="14" style="5" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="16.243137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="12.3803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="27.7019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="27.3411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="16.243137254902"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="5" width="25.1333333333333"/>
+    <col collapsed="false" hidden="false" max="257" min="14" style="5" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
@@ -9507,14 +9510,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="33.7176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="65.2823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="33.8901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="65.6078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
       <c r="A1" s="23" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -9556,18 +9559,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -9593,19 +9596,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="29.9019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="2" style="28" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="30.0549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="2" style="28" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
       <c r="A1" s="23" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="23" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F1" s="44"/>
       <c r="G1" s="26"/>
@@ -9634,7 +9637,7 @@
         <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>242</v>
@@ -9646,7 +9649,7 @@
         <v>228</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>394</v>
@@ -9660,19 +9663,19 @@
         <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>242</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>398</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>399</v>
@@ -9680,10 +9683,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C4" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -9931,10 +9934,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C21" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -10203,16 +10206,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="19.7607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="29.9019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="33.1647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="31" width="28.4549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="31" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="19.8627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="31" width="30.0549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="33.3294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="31" width="28.6"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="31" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
       <c r="A1" s="14" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -10256,7 +10259,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -10276,16 +10279,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
@@ -10298,16 +10301,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
@@ -10320,16 +10323,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
@@ -10360,15 +10363,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="26.0745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="31" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="24.6549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="31" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="26.2117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="31" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="24.7725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="31" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="32">
       <c r="A1" s="14" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -10395,7 +10398,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>45</v>
@@ -10415,7 +10418,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>95</v>
@@ -10432,62 +10435,62 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="45" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>101</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="A5" s="45" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="A6" s="45" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -10513,13 +10516,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="8" width="34.8313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="8" width="35"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
       <c r="A1" s="23" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -10561,34 +10564,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -10614,14 +10617,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="48.6039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="39"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="48.8470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="39.2"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
       <c r="A1" s="23" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -10653,7 +10656,7 @@
         <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>239</v>
@@ -10670,27 +10673,27 @@
         <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>239</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C4" s="28" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E4" s="28" t="n">
         <v>56</v>
@@ -10698,16 +10701,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C5" s="28" t="n">
         <v>5</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E5" s="28" t="n">
         <v>20</v>
@@ -10715,13 +10718,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C6" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E6" s="28" t="n">
         <v>30</v>
@@ -10729,10 +10732,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="28" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C7" s="28" t="n">
         <v>500</v>
@@ -10746,10 +10749,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="28" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C8" s="28" t="n">
         <v>100</v>
@@ -10763,7 +10766,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="28" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B9" s="46" t="n">
         <v>0.96</v>
@@ -10780,7 +10783,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28" t="n">
@@ -10795,7 +10798,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="28" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="n">
@@ -10810,7 +10813,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="28" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28" t="n">
@@ -10825,10 +10828,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C13" s="28" t="n">
         <v>100</v>
@@ -10842,14 +10845,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="28" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28" t="n">
         <v>2.5</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E14" s="28" t="n">
         <v>520</v>
@@ -10857,7 +10860,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="28" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28" t="n">
@@ -10872,7 +10875,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="28" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28" t="n">
@@ -10887,7 +10890,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="28" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C17" s="28" t="n">
         <v>500</v>
@@ -10901,7 +10904,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="28" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28" t="n">
@@ -10916,7 +10919,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="28" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28" t="n">
@@ -10931,16 +10934,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="28" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C20" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E20" s="28" t="n">
         <v>20</v>
@@ -10948,16 +10951,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C21" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E21" s="28" t="n">
         <v>13.6</v>
@@ -10965,16 +10968,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="28" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C22" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E22" s="28" t="n">
         <v>90</v>
@@ -10982,13 +10985,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="28" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C23" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E23" s="28" t="n">
         <v>35</v>
@@ -11017,16 +11020,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="28" width="20.5019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="23.9764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="28" width="20.5019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="28" width="20.6039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="24.0941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="28" width="20.6039215686275"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
       <c r="A1" s="23" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -11055,22 +11058,22 @@
         <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3" s="3">
@@ -11081,22 +11084,22 @@
         <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -11104,19 +11107,19 @@
         <v>360</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D4" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -11124,10 +11127,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -11135,7 +11138,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -11143,7 +11146,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -11151,7 +11154,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -11159,7 +11162,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -11167,7 +11170,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -11175,7 +11178,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -11183,7 +11186,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -11191,7 +11194,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H13" s="28" t="n">
         <v>3</v>
@@ -11202,19 +11205,19 @@
         <v>352</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D14" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -11222,10 +11225,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -11233,7 +11236,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -11241,7 +11244,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
@@ -11249,7 +11252,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
@@ -11257,7 +11260,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -11265,7 +11268,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
@@ -11273,7 +11276,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
@@ -11281,7 +11284,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -11289,7 +11292,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H23" s="28" t="n">
         <v>3</v>
@@ -11297,39 +11300,39 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="24">
       <c r="A24" s="28" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D24" s="28" t="n">
         <v>5</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="E25" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="E26" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="E27" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="E28" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -11355,10 +11358,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="8" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="27.2039215686274"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="26.6549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="8" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="27.3411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="26.7882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="8" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
@@ -11619,13 +11622,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="8" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="23.9764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="8" width="20.2941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="23.5882352941176"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="26.4470588235294"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="8" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="24.0941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="8" width="20.3960784313725"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="23.7058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="26.5803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="8" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="11">
@@ -11796,9 +11799,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="31.7294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="8" width="31.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="8" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
@@ -11887,11 +11890,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="30.3176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="28.6901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="13" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="30.4705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="28.8352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="13" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="16">
@@ -12009,15 +12012,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="18.678431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="13" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.5803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="22.6941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="13" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="25.3882352941176"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="13" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="17" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="13" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="18.7764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="13" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.6901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="22.8117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="7" style="13" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="25.5137254901961"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="13" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="17" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="13" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="16">
@@ -12369,13 +12372,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="23.2352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="39.9137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="23.9764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="18" width="21.4156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="20.5019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="18" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="23.3529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="40.1098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="24.0941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="18" width="21.5176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="20.6039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="18" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="20">
@@ -12519,9 +12522,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="25.0078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="26.2901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="25.1333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="26.4196078431373"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="8" width="11.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="1" s="9">
